--- a/NEET_2024_Excel/Individual_Excel/271248.xlsx
+++ b/NEET_2024_Excel/Individual_Excel/271248.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="8">
   <si>
     <t>Srlno.</t>
   </si>
@@ -395,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E241"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4311,127 +4311,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
-      <c r="C231" t="s">
-        <v>5</v>
-      </c>
-      <c r="D231" t="s">
-        <v>6</v>
-      </c>
-      <c r="E231" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="C232" t="s">
-        <v>5</v>
-      </c>
-      <c r="D232" t="s">
-        <v>6</v>
-      </c>
-      <c r="E232" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="C233" t="s">
-        <v>5</v>
-      </c>
-      <c r="D233" t="s">
-        <v>6</v>
-      </c>
-      <c r="E233" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
-      <c r="C234" t="s">
-        <v>5</v>
-      </c>
-      <c r="D234" t="s">
-        <v>6</v>
-      </c>
-      <c r="E234" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
-      <c r="C235" t="s">
-        <v>5</v>
-      </c>
-      <c r="D235" t="s">
-        <v>6</v>
-      </c>
-      <c r="E235" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
-      <c r="C236" t="s">
-        <v>5</v>
-      </c>
-      <c r="D236" t="s">
-        <v>6</v>
-      </c>
-      <c r="E236" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
-      <c r="C237" t="s">
-        <v>5</v>
-      </c>
-      <c r="D237" t="s">
-        <v>6</v>
-      </c>
-      <c r="E237" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
-      <c r="C238" t="s">
-        <v>5</v>
-      </c>
-      <c r="D238" t="s">
-        <v>6</v>
-      </c>
-      <c r="E238" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
-      <c r="C239" t="s">
-        <v>5</v>
-      </c>
-      <c r="D239" t="s">
-        <v>6</v>
-      </c>
-      <c r="E239" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="C240" t="s">
-        <v>5</v>
-      </c>
-      <c r="D240" t="s">
-        <v>6</v>
-      </c>
-      <c r="E240" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="241" spans="3:5">
-      <c r="C241" t="s">
-        <v>5</v>
-      </c>
-      <c r="D241" t="s">
-        <v>6</v>
-      </c>
-      <c r="E241" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
